--- a/data/final/rs_analysis.xlsx
+++ b/data/final/rs_analysis.xlsx
@@ -29,7 +29,7 @@
     <t>ALUA/USDB</t>
   </si>
   <si>
-    <t>BMA/USBD</t>
+    <t>BMA/USDB</t>
   </si>
   <si>
     <t>BBAR/USDB</t>

--- a/data/final/rs_analysis.xlsx
+++ b/data/final/rs_analysis.xlsx
@@ -8,17 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="rs_df" sheetId="1" r:id="rId1"/>
-    <sheet name="USD" sheetId="2" r:id="rId2"/>
+    <sheet name="USDB" sheetId="2" r:id="rId2"/>
     <sheet name="ALUA" sheetId="3" r:id="rId3"/>
     <sheet name="BMA" sheetId="4" r:id="rId4"/>
-    <sheet name="BBAR" sheetId="5" r:id="rId5"/>
+    <sheet name="BBVA" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>fecha</t>
   </si>
@@ -35,22 +35,10 @@
     <t>BBAR/USDB</t>
   </si>
   <si>
-    <t>cierre_1</t>
+    <t>cierre</t>
   </si>
   <si>
-    <t>retorno_1</t>
-  </si>
-  <si>
-    <t>cierre_2</t>
-  </si>
-  <si>
-    <t>retorno_2</t>
-  </si>
-  <si>
-    <t>cierre_3</t>
-  </si>
-  <si>
-    <t>retorno_3</t>
+    <t>retorno</t>
   </si>
 </sst>
 </file>
@@ -11509,10 +11497,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -15867,10 +15855,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -20225,10 +20213,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -20236,10 +20224,10 @@
         <v>44565</v>
       </c>
       <c r="B2">
-        <v>290.3</v>
+        <v>218.25</v>
       </c>
       <c r="C2">
-        <v>-1.351</v>
+        <v>-2.422</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -20247,10 +20235,10 @@
         <v>44566</v>
       </c>
       <c r="B3">
-        <v>281.35</v>
+        <v>212.55</v>
       </c>
       <c r="C3">
-        <v>-3.132</v>
+        <v>-2.646</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -20258,10 +20246,10 @@
         <v>44567</v>
       </c>
       <c r="B4">
-        <v>289.4</v>
+        <v>217.4</v>
       </c>
       <c r="C4">
-        <v>2.821</v>
+        <v>2.256</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -20269,10 +20257,10 @@
         <v>44568</v>
       </c>
       <c r="B5">
-        <v>292.95</v>
+        <v>220.9</v>
       </c>
       <c r="C5">
-        <v>1.219</v>
+        <v>1.597</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -20280,10 +20268,10 @@
         <v>44571</v>
       </c>
       <c r="B6">
-        <v>291.05</v>
+        <v>218</v>
       </c>
       <c r="C6">
-        <v>-0.651</v>
+        <v>-1.322</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -20291,10 +20279,10 @@
         <v>44572</v>
       </c>
       <c r="B7">
-        <v>295.3</v>
+        <v>219.55</v>
       </c>
       <c r="C7">
-        <v>1.45</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -20302,10 +20290,10 @@
         <v>44573</v>
       </c>
       <c r="B8">
-        <v>296.1</v>
+        <v>223.2</v>
       </c>
       <c r="C8">
-        <v>0.271</v>
+        <v>1.649</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -20313,10 +20301,10 @@
         <v>44574</v>
       </c>
       <c r="B9">
-        <v>301.05</v>
+        <v>227.8</v>
       </c>
       <c r="C9">
-        <v>1.658</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -20324,10 +20312,10 @@
         <v>44575</v>
       </c>
       <c r="B10">
-        <v>305.2</v>
+        <v>223.5</v>
       </c>
       <c r="C10">
-        <v>1.369</v>
+        <v>-1.906</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -20335,10 +20323,10 @@
         <v>44578</v>
       </c>
       <c r="B11">
-        <v>299.35</v>
+        <v>223.1</v>
       </c>
       <c r="C11">
-        <v>-1.935</v>
+        <v>-0.179</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -20346,10 +20334,10 @@
         <v>44579</v>
       </c>
       <c r="B12">
-        <v>295.45</v>
+        <v>215.9</v>
       </c>
       <c r="C12">
-        <v>-1.311</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -20357,10 +20345,10 @@
         <v>44580</v>
       </c>
       <c r="B13">
-        <v>300</v>
+        <v>216</v>
       </c>
       <c r="C13">
-        <v>1.528</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -20368,10 +20356,10 @@
         <v>44581</v>
       </c>
       <c r="B14">
-        <v>309.6</v>
+        <v>222.1</v>
       </c>
       <c r="C14">
-        <v>3.15</v>
+        <v>2.785</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -20379,10 +20367,10 @@
         <v>44582</v>
       </c>
       <c r="B15">
-        <v>298.2</v>
+        <v>219.6</v>
       </c>
       <c r="C15">
-        <v>-3.752</v>
+        <v>-1.132</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -20390,10 +20378,10 @@
         <v>44585</v>
       </c>
       <c r="B16">
-        <v>279.5</v>
+        <v>208.5</v>
       </c>
       <c r="C16">
-        <v>-6.476</v>
+        <v>-5.187</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -20401,10 +20389,10 @@
         <v>44586</v>
       </c>
       <c r="B17">
-        <v>294</v>
+        <v>221.7</v>
       </c>
       <c r="C17">
-        <v>5.058</v>
+        <v>6.139</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -20412,10 +20400,10 @@
         <v>44587</v>
       </c>
       <c r="B18">
-        <v>302.25</v>
+        <v>224.05</v>
       </c>
       <c r="C18">
-        <v>2.767</v>
+        <v>1.054</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -20423,10 +20411,10 @@
         <v>44588</v>
       </c>
       <c r="B19">
-        <v>300.4</v>
+        <v>225</v>
       </c>
       <c r="C19">
-        <v>-0.614</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -20434,10 +20422,10 @@
         <v>44589</v>
       </c>
       <c r="B20">
-        <v>314.05</v>
+        <v>237.5</v>
       </c>
       <c r="C20">
-        <v>4.444</v>
+        <v>5.407</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -20445,10 +20433,10 @@
         <v>44592</v>
       </c>
       <c r="B21">
-        <v>322.25</v>
+        <v>247.1</v>
       </c>
       <c r="C21">
-        <v>2.578</v>
+        <v>3.963</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -20456,10 +20444,10 @@
         <v>44593</v>
       </c>
       <c r="B22">
-        <v>321.75</v>
+        <v>243.75</v>
       </c>
       <c r="C22">
-        <v>-0.155</v>
+        <v>-1.365</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -20467,10 +20455,10 @@
         <v>44594</v>
       </c>
       <c r="B23">
-        <v>313.35</v>
+        <v>234.65</v>
       </c>
       <c r="C23">
-        <v>-2.645</v>
+        <v>-3.805</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -20478,10 +20466,10 @@
         <v>44595</v>
       </c>
       <c r="B24">
-        <v>311.45</v>
+        <v>234.95</v>
       </c>
       <c r="C24">
-        <v>-0.608</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -20489,10 +20477,10 @@
         <v>44596</v>
       </c>
       <c r="B25">
-        <v>303.6</v>
+        <v>236.4</v>
       </c>
       <c r="C25">
-        <v>-2.553</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -20500,10 +20488,10 @@
         <v>44599</v>
       </c>
       <c r="B26">
-        <v>309</v>
+        <v>235.75</v>
       </c>
       <c r="C26">
-        <v>1.763</v>
+        <v>-0.275</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -20511,10 +20499,10 @@
         <v>44600</v>
       </c>
       <c r="B27">
-        <v>301.85</v>
+        <v>231.45</v>
       </c>
       <c r="C27">
-        <v>-2.341</v>
+        <v>-1.841</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -20522,10 +20510,10 @@
         <v>44601</v>
       </c>
       <c r="B28">
-        <v>295.45</v>
+        <v>226.1</v>
       </c>
       <c r="C28">
-        <v>-2.143</v>
+        <v>-2.339</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -20533,10 +20521,10 @@
         <v>44602</v>
       </c>
       <c r="B29">
-        <v>298</v>
+        <v>227.85</v>
       </c>
       <c r="C29">
-        <v>0.859</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -20544,10 +20532,10 @@
         <v>44603</v>
       </c>
       <c r="B30">
-        <v>298.95</v>
+        <v>225.1</v>
       </c>
       <c r="C30">
-        <v>0.318</v>
+        <v>-1.214</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -20555,10 +20543,10 @@
         <v>44606</v>
       </c>
       <c r="B31">
-        <v>291</v>
+        <v>226.6</v>
       </c>
       <c r="C31">
-        <v>-2.695</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -20566,10 +20554,10 @@
         <v>44607</v>
       </c>
       <c r="B32">
-        <v>293.05</v>
+        <v>230.05</v>
       </c>
       <c r="C32">
-        <v>0.702</v>
+        <v>1.511</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -20577,10 +20565,10 @@
         <v>44608</v>
       </c>
       <c r="B33">
-        <v>304.25</v>
+        <v>238.1</v>
       </c>
       <c r="C33">
-        <v>3.751</v>
+        <v>3.439</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -20588,10 +20576,10 @@
         <v>44609</v>
       </c>
       <c r="B34">
-        <v>299</v>
+        <v>236.55</v>
       </c>
       <c r="C34">
-        <v>-1.741</v>
+        <v>-0.653</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -20599,10 +20587,10 @@
         <v>44610</v>
       </c>
       <c r="B35">
-        <v>301.15</v>
+        <v>243.9</v>
       </c>
       <c r="C35">
-        <v>0.716</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -20610,10 +20598,10 @@
         <v>44613</v>
       </c>
       <c r="B36">
-        <v>306.4</v>
+        <v>237.2</v>
       </c>
       <c r="C36">
-        <v>1.728</v>
+        <v>-2.785</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -20621,10 +20609,10 @@
         <v>44614</v>
       </c>
       <c r="B37">
-        <v>313.05</v>
+        <v>241.25</v>
       </c>
       <c r="C37">
-        <v>2.147</v>
+        <v>1.693</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -20632,10 +20620,10 @@
         <v>44615</v>
       </c>
       <c r="B38">
-        <v>315.9</v>
+        <v>246.25</v>
       </c>
       <c r="C38">
-        <v>0.906</v>
+        <v>2.051</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -20643,10 +20631,10 @@
         <v>44616</v>
       </c>
       <c r="B39">
-        <v>304.8</v>
+        <v>233.2</v>
       </c>
       <c r="C39">
-        <v>-3.577</v>
+        <v>-5.445</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -20654,10 +20642,10 @@
         <v>44617</v>
       </c>
       <c r="B40">
-        <v>300.6</v>
+        <v>231.3</v>
       </c>
       <c r="C40">
-        <v>-1.388</v>
+        <v>-0.8179999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -20665,10 +20653,10 @@
         <v>44622</v>
       </c>
       <c r="B41">
-        <v>301.9</v>
+        <v>224.85</v>
       </c>
       <c r="C41">
-        <v>0.432</v>
+        <v>-2.828</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -20676,10 +20664,10 @@
         <v>44623</v>
       </c>
       <c r="B42">
-        <v>307.55</v>
+        <v>228.2</v>
       </c>
       <c r="C42">
-        <v>1.854</v>
+        <v>1.479</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -20687,10 +20675,10 @@
         <v>44624</v>
       </c>
       <c r="B43">
-        <v>291.55</v>
+        <v>210.3</v>
       </c>
       <c r="C43">
-        <v>-5.343</v>
+        <v>-8.169</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -20698,10 +20686,10 @@
         <v>44627</v>
       </c>
       <c r="B44">
-        <v>285.35</v>
+        <v>197.55</v>
       </c>
       <c r="C44">
-        <v>-2.15</v>
+        <v>-6.254</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -20709,10 +20697,10 @@
         <v>44628</v>
       </c>
       <c r="B45">
-        <v>298.2</v>
+        <v>208.75</v>
       </c>
       <c r="C45">
-        <v>4.405</v>
+        <v>5.515</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -20720,10 +20708,10 @@
         <v>44629</v>
       </c>
       <c r="B46">
-        <v>294</v>
+        <v>210</v>
       </c>
       <c r="C46">
-        <v>-1.418</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -20731,10 +20719,10 @@
         <v>44630</v>
       </c>
       <c r="B47">
-        <v>312.4</v>
+        <v>219.3</v>
       </c>
       <c r="C47">
-        <v>6.07</v>
+        <v>4.333</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -20742,10 +20730,10 @@
         <v>44631</v>
       </c>
       <c r="B48">
-        <v>299.65</v>
+        <v>214.9</v>
       </c>
       <c r="C48">
-        <v>-4.167</v>
+        <v>-2.027</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -20753,10 +20741,10 @@
         <v>44634</v>
       </c>
       <c r="B49">
-        <v>285.65</v>
+        <v>206.3</v>
       </c>
       <c r="C49">
-        <v>-4.785</v>
+        <v>-4.084</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -20764,10 +20752,10 @@
         <v>44635</v>
       </c>
       <c r="B50">
-        <v>286.9</v>
+        <v>205.5</v>
       </c>
       <c r="C50">
-        <v>0.437</v>
+        <v>-0.389</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -20775,10 +20763,10 @@
         <v>44636</v>
       </c>
       <c r="B51">
-        <v>301.9</v>
+        <v>220.4</v>
       </c>
       <c r="C51">
-        <v>5.096</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -20786,10 +20774,10 @@
         <v>44637</v>
       </c>
       <c r="B52">
-        <v>308.1</v>
+        <v>219.35</v>
       </c>
       <c r="C52">
-        <v>2.033</v>
+        <v>-0.478</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -20797,10 +20785,10 @@
         <v>44638</v>
       </c>
       <c r="B53">
-        <v>313.55</v>
+        <v>220.4</v>
       </c>
       <c r="C53">
-        <v>1.753</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -20808,10 +20796,10 @@
         <v>44641</v>
       </c>
       <c r="B54">
-        <v>320.95</v>
+        <v>224.4</v>
       </c>
       <c r="C54">
-        <v>2.333</v>
+        <v>1.799</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -20819,10 +20807,10 @@
         <v>44642</v>
       </c>
       <c r="B55">
-        <v>327.8</v>
+        <v>230.4</v>
       </c>
       <c r="C55">
-        <v>2.112</v>
+        <v>2.639</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -20830,10 +20818,10 @@
         <v>44643</v>
       </c>
       <c r="B56">
-        <v>329.9</v>
+        <v>230.5</v>
       </c>
       <c r="C56">
-        <v>0.639</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -20841,10 +20829,10 @@
         <v>44645</v>
       </c>
       <c r="B57">
-        <v>339.35</v>
+        <v>237.15</v>
       </c>
       <c r="C57">
-        <v>2.824</v>
+        <v>2.844</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -20852,10 +20840,10 @@
         <v>44648</v>
       </c>
       <c r="B58">
-        <v>335.4</v>
+        <v>231.15</v>
       </c>
       <c r="C58">
-        <v>-1.171</v>
+        <v>-2.563</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -20863,10 +20851,10 @@
         <v>44649</v>
       </c>
       <c r="B59">
-        <v>329.3</v>
+        <v>226.95</v>
       </c>
       <c r="C59">
-        <v>-1.835</v>
+        <v>-1.834</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -20874,10 +20862,10 @@
         <v>44650</v>
       </c>
       <c r="B60">
-        <v>329.45</v>
+        <v>227.95</v>
       </c>
       <c r="C60">
-        <v>0.046</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -20885,10 +20873,10 @@
         <v>44651</v>
       </c>
       <c r="B61">
-        <v>328.95</v>
+        <v>225</v>
       </c>
       <c r="C61">
-        <v>-0.152</v>
+        <v>-1.303</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -20896,10 +20884,10 @@
         <v>44652</v>
       </c>
       <c r="B62">
-        <v>337.4</v>
+        <v>230.5</v>
       </c>
       <c r="C62">
-        <v>2.536</v>
+        <v>2.415</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -20907,10 +20895,10 @@
         <v>44655</v>
       </c>
       <c r="B63">
-        <v>334.75</v>
+        <v>228.2</v>
       </c>
       <c r="C63">
-        <v>-0.789</v>
+        <v>-1.003</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -20918,10 +20906,10 @@
         <v>44656</v>
       </c>
       <c r="B64">
-        <v>327.4</v>
+        <v>220.85</v>
       </c>
       <c r="C64">
-        <v>-2.22</v>
+        <v>-3.274</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -20929,10 +20917,10 @@
         <v>44657</v>
       </c>
       <c r="B65">
-        <v>323.2</v>
+        <v>217.6</v>
       </c>
       <c r="C65">
-        <v>-1.291</v>
+        <v>-1.483</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -20940,10 +20928,10 @@
         <v>44658</v>
       </c>
       <c r="B66">
-        <v>323.6</v>
+        <v>215.05</v>
       </c>
       <c r="C66">
-        <v>0.124</v>
+        <v>-1.179</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -20951,10 +20939,10 @@
         <v>44659</v>
       </c>
       <c r="B67">
-        <v>327.15</v>
+        <v>215.25</v>
       </c>
       <c r="C67">
-        <v>1.091</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -20962,10 +20950,10 @@
         <v>44662</v>
       </c>
       <c r="B68">
-        <v>320.7</v>
+        <v>209.7</v>
       </c>
       <c r="C68">
-        <v>-1.991</v>
+        <v>-2.612</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -20973,10 +20961,10 @@
         <v>44663</v>
       </c>
       <c r="B69">
-        <v>315.5</v>
+        <v>204.9</v>
       </c>
       <c r="C69">
-        <v>-1.635</v>
+        <v>-2.316</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -20984,10 +20972,10 @@
         <v>44664</v>
       </c>
       <c r="B70">
-        <v>315.9</v>
+        <v>204</v>
       </c>
       <c r="C70">
-        <v>0.127</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -20995,10 +20983,10 @@
         <v>44669</v>
       </c>
       <c r="B71">
-        <v>319.6</v>
+        <v>205.5</v>
       </c>
       <c r="C71">
-        <v>1.164</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -21006,10 +20994,10 @@
         <v>44670</v>
       </c>
       <c r="B72">
-        <v>324.35</v>
+        <v>209.65</v>
       </c>
       <c r="C72">
-        <v>1.475</v>
+        <v>1.999</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -21017,10 +21005,10 @@
         <v>44671</v>
       </c>
       <c r="B73">
-        <v>329.9</v>
+        <v>219.3</v>
       </c>
       <c r="C73">
-        <v>1.697</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -21028,10 +21016,10 @@
         <v>44672</v>
       </c>
       <c r="B74">
-        <v>324.35</v>
+        <v>212.2</v>
       </c>
       <c r="C74">
-        <v>-1.697</v>
+        <v>-3.291</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -21039,10 +21027,10 @@
         <v>44673</v>
       </c>
       <c r="B75">
-        <v>323.05</v>
+        <v>212</v>
       </c>
       <c r="C75">
-        <v>-0.402</v>
+        <v>-0.094</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -21050,10 +21038,10 @@
         <v>44676</v>
       </c>
       <c r="B76">
-        <v>319.5</v>
+        <v>213.7</v>
       </c>
       <c r="C76">
-        <v>-1.105</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -21061,10 +21049,10 @@
         <v>44677</v>
       </c>
       <c r="B77">
-        <v>306.7</v>
+        <v>207.75</v>
       </c>
       <c r="C77">
-        <v>-4.089</v>
+        <v>-2.824</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -21072,10 +21060,10 @@
         <v>44678</v>
       </c>
       <c r="B78">
-        <v>306</v>
+        <v>207.1</v>
       </c>
       <c r="C78">
-        <v>-0.228</v>
+        <v>-0.313</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -21083,10 +21071,10 @@
         <v>44679</v>
       </c>
       <c r="B79">
-        <v>305.3</v>
+        <v>206.85</v>
       </c>
       <c r="C79">
-        <v>-0.229</v>
+        <v>-0.121</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -21094,10 +21082,10 @@
         <v>44680</v>
       </c>
       <c r="B80">
-        <v>301.7</v>
+        <v>202.2</v>
       </c>
       <c r="C80">
-        <v>-1.186</v>
+        <v>-2.274</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -21105,10 +21093,10 @@
         <v>44683</v>
       </c>
       <c r="B81">
-        <v>298.3</v>
+        <v>198.6</v>
       </c>
       <c r="C81">
-        <v>-1.133</v>
+        <v>-1.796</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -21116,10 +21104,10 @@
         <v>44684</v>
       </c>
       <c r="B82">
-        <v>311.9</v>
+        <v>207.7</v>
       </c>
       <c r="C82">
-        <v>4.458</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -21127,10 +21115,10 @@
         <v>44685</v>
       </c>
       <c r="B83">
-        <v>309.5</v>
+        <v>208.65</v>
       </c>
       <c r="C83">
-        <v>-0.772</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -21138,10 +21126,10 @@
         <v>44686</v>
       </c>
       <c r="B84">
-        <v>298.45</v>
+        <v>199.95</v>
       </c>
       <c r="C84">
-        <v>-3.636</v>
+        <v>-4.259</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -21149,10 +21137,10 @@
         <v>44687</v>
       </c>
       <c r="B85">
-        <v>299.6</v>
+        <v>204.3</v>
       </c>
       <c r="C85">
-        <v>0.385</v>
+        <v>2.152</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -21160,10 +21148,10 @@
         <v>44690</v>
       </c>
       <c r="B86">
-        <v>284.65</v>
+        <v>193.65</v>
       </c>
       <c r="C86">
-        <v>-5.119</v>
+        <v>-5.354</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -21171,10 +21159,10 @@
         <v>44691</v>
       </c>
       <c r="B87">
-        <v>290.85</v>
+        <v>191.5</v>
       </c>
       <c r="C87">
-        <v>2.155</v>
+        <v>-1.116</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -21182,10 +21170,10 @@
         <v>44692</v>
       </c>
       <c r="B88">
-        <v>300.5</v>
+        <v>195.5</v>
       </c>
       <c r="C88">
-        <v>3.264</v>
+        <v>2.067</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -21193,10 +21181,10 @@
         <v>44693</v>
       </c>
       <c r="B89">
-        <v>307.75</v>
+        <v>198.45</v>
       </c>
       <c r="C89">
-        <v>2.384</v>
+        <v>1.498</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -21204,10 +21192,10 @@
         <v>44694</v>
       </c>
       <c r="B90">
-        <v>342</v>
+        <v>217.65</v>
       </c>
       <c r="C90">
-        <v>10.552</v>
+        <v>9.234999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -21215,7 +21203,7 @@
         <v>44697</v>
       </c>
       <c r="B91">
-        <v>342</v>
+        <v>217.65</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -21226,7 +21214,7 @@
         <v>44698</v>
       </c>
       <c r="B92">
-        <v>342</v>
+        <v>217.65</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -21237,10 +21225,10 @@
         <v>44700</v>
       </c>
       <c r="B93">
-        <v>330.8</v>
+        <v>212.65</v>
       </c>
       <c r="C93">
-        <v>-3.33</v>
+        <v>-2.324</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -21248,10 +21236,10 @@
         <v>44701</v>
       </c>
       <c r="B94">
-        <v>328.2</v>
+        <v>207.8</v>
       </c>
       <c r="C94">
-        <v>-0.789</v>
+        <v>-2.307</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -21259,10 +21247,10 @@
         <v>44704</v>
       </c>
       <c r="B95">
-        <v>336.3</v>
+        <v>216.6</v>
       </c>
       <c r="C95">
-        <v>2.438</v>
+        <v>4.148</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -21270,10 +21258,10 @@
         <v>44705</v>
       </c>
       <c r="B96">
-        <v>355.35</v>
+        <v>219.85</v>
       </c>
       <c r="C96">
-        <v>5.51</v>
+        <v>1.489</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -21281,10 +21269,10 @@
         <v>44707</v>
       </c>
       <c r="B97">
-        <v>358.7</v>
+        <v>224.85</v>
       </c>
       <c r="C97">
-        <v>0.9379999999999999</v>
+        <v>2.249</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -21292,10 +21280,10 @@
         <v>44708</v>
       </c>
       <c r="B98">
-        <v>351</v>
+        <v>222.45</v>
       </c>
       <c r="C98">
-        <v>-2.17</v>
+        <v>-1.073</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -21303,10 +21291,10 @@
         <v>44711</v>
       </c>
       <c r="B99">
-        <v>352.15</v>
+        <v>222.35</v>
       </c>
       <c r="C99">
-        <v>0.327</v>
+        <v>-0.045</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -21314,10 +21302,10 @@
         <v>44712</v>
       </c>
       <c r="B100">
-        <v>339.95</v>
+        <v>212.5</v>
       </c>
       <c r="C100">
-        <v>-3.526</v>
+        <v>-4.531</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -21325,10 +21313,10 @@
         <v>44713</v>
       </c>
       <c r="B101">
-        <v>335.7</v>
+        <v>207.35</v>
       </c>
       <c r="C101">
-        <v>-1.258</v>
+        <v>-2.453</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -21336,10 +21324,10 @@
         <v>44714</v>
       </c>
       <c r="B102">
-        <v>334.9</v>
+        <v>205.65</v>
       </c>
       <c r="C102">
-        <v>-0.239</v>
+        <v>-0.823</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -21347,10 +21335,10 @@
         <v>44715</v>
       </c>
       <c r="B103">
-        <v>319.85</v>
+        <v>209.15</v>
       </c>
       <c r="C103">
-        <v>-4.598</v>
+        <v>1.688</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -21358,10 +21346,10 @@
         <v>44718</v>
       </c>
       <c r="B104">
-        <v>311.6</v>
+        <v>202.9</v>
       </c>
       <c r="C104">
-        <v>-2.613</v>
+        <v>-3.034</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -21369,10 +21357,10 @@
         <v>44719</v>
       </c>
       <c r="B105">
-        <v>310</v>
+        <v>203.4</v>
       </c>
       <c r="C105">
-        <v>-0.515</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -21380,10 +21368,10 @@
         <v>44720</v>
       </c>
       <c r="B106">
-        <v>297.95</v>
+        <v>195.15</v>
       </c>
       <c r="C106">
-        <v>-3.965</v>
+        <v>-4.141</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -21391,10 +21379,10 @@
         <v>44721</v>
       </c>
       <c r="B107">
-        <v>292.2</v>
+        <v>190.85</v>
       </c>
       <c r="C107">
-        <v>-1.949</v>
+        <v>-2.228</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -21402,10 +21390,10 @@
         <v>44722</v>
       </c>
       <c r="B108">
-        <v>295</v>
+        <v>195.15</v>
       </c>
       <c r="C108">
-        <v>0.954</v>
+        <v>2.228</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -21413,10 +21401,10 @@
         <v>44725</v>
       </c>
       <c r="B109">
-        <v>291.15</v>
+        <v>191.6</v>
       </c>
       <c r="C109">
-        <v>-1.314</v>
+        <v>-1.836</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -21424,10 +21412,10 @@
         <v>44726</v>
       </c>
       <c r="B110">
-        <v>296.3</v>
+        <v>197.05</v>
       </c>
       <c r="C110">
-        <v>1.753</v>
+        <v>2.805</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -21435,10 +21423,10 @@
         <v>44727</v>
       </c>
       <c r="B111">
-        <v>299.8</v>
+        <v>203.5</v>
       </c>
       <c r="C111">
-        <v>1.174</v>
+        <v>3.221</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -21446,10 +21434,10 @@
         <v>44728</v>
       </c>
       <c r="B112">
-        <v>294.4</v>
+        <v>203.05</v>
       </c>
       <c r="C112">
-        <v>-1.818</v>
+        <v>-0.221</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -21457,10 +21445,10 @@
         <v>44733</v>
       </c>
       <c r="B113">
-        <v>289.4</v>
+        <v>201</v>
       </c>
       <c r="C113">
-        <v>-1.713</v>
+        <v>-1.015</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -21468,10 +21456,10 @@
         <v>44734</v>
       </c>
       <c r="B114">
-        <v>286.1</v>
+        <v>202.7</v>
       </c>
       <c r="C114">
-        <v>-1.147</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -21479,10 +21467,10 @@
         <v>44735</v>
       </c>
       <c r="B115">
-        <v>275.05</v>
+        <v>196.7</v>
       </c>
       <c r="C115">
-        <v>-3.939</v>
+        <v>-3.005</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -21490,10 +21478,10 @@
         <v>44736</v>
       </c>
       <c r="B116">
-        <v>272.3</v>
+        <v>192.3</v>
       </c>
       <c r="C116">
-        <v>-1.005</v>
+        <v>-2.262</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -21501,10 +21489,10 @@
         <v>44739</v>
       </c>
       <c r="B117">
-        <v>280.8</v>
+        <v>198.2</v>
       </c>
       <c r="C117">
-        <v>3.074</v>
+        <v>3.022</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -21512,10 +21500,10 @@
         <v>44740</v>
       </c>
       <c r="B118">
-        <v>296.95</v>
+        <v>205.35</v>
       </c>
       <c r="C118">
-        <v>5.592</v>
+        <v>3.544</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -21523,10 +21511,10 @@
         <v>44741</v>
       </c>
       <c r="B119">
-        <v>295</v>
+        <v>204.6</v>
       </c>
       <c r="C119">
-        <v>-0.659</v>
+        <v>-0.366</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -21534,10 +21522,10 @@
         <v>44742</v>
       </c>
       <c r="B120">
-        <v>285.05</v>
+        <v>201</v>
       </c>
       <c r="C120">
-        <v>-3.431</v>
+        <v>-1.775</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -21545,10 +21533,10 @@
         <v>44743</v>
       </c>
       <c r="B121">
-        <v>296.45</v>
+        <v>204.55</v>
       </c>
       <c r="C121">
-        <v>3.921</v>
+        <v>1.751</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -21556,10 +21544,10 @@
         <v>44746</v>
       </c>
       <c r="B122">
-        <v>281.35</v>
+        <v>185.25</v>
       </c>
       <c r="C122">
-        <v>-5.228</v>
+        <v>-9.911</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -21567,10 +21555,10 @@
         <v>44747</v>
       </c>
       <c r="B123">
-        <v>309.55</v>
+        <v>198.85</v>
       </c>
       <c r="C123">
-        <v>9.552</v>
+        <v>7.084</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -21578,10 +21566,10 @@
         <v>44748</v>
       </c>
       <c r="B124">
-        <v>311.8</v>
+        <v>202.65</v>
       </c>
       <c r="C124">
-        <v>0.724</v>
+        <v>1.893</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -21589,10 +21577,10 @@
         <v>44749</v>
       </c>
       <c r="B125">
-        <v>337.05</v>
+        <v>222.65</v>
       </c>
       <c r="C125">
-        <v>7.787</v>
+        <v>9.412000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -21600,10 +21588,10 @@
         <v>44750</v>
       </c>
       <c r="B126">
-        <v>338.5</v>
+        <v>223.7</v>
       </c>
       <c r="C126">
-        <v>0.429</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -21611,10 +21599,10 @@
         <v>44753</v>
       </c>
       <c r="B127">
-        <v>326.8</v>
+        <v>223.8</v>
       </c>
       <c r="C127">
-        <v>-3.518</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -21622,10 +21610,10 @@
         <v>44754</v>
       </c>
       <c r="B128">
-        <v>319.5</v>
+        <v>223.35</v>
       </c>
       <c r="C128">
-        <v>-2.259</v>
+        <v>-0.201</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -21633,10 +21621,10 @@
         <v>44755</v>
       </c>
       <c r="B129">
-        <v>311.15</v>
+        <v>218.1</v>
       </c>
       <c r="C129">
-        <v>-2.648</v>
+        <v>-2.379</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -21644,10 +21632,10 @@
         <v>44756</v>
       </c>
       <c r="B130">
-        <v>304.05</v>
+        <v>213.35</v>
       </c>
       <c r="C130">
-        <v>-2.308</v>
+        <v>-2.202</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -21655,10 +21643,10 @@
         <v>44757</v>
       </c>
       <c r="B131">
-        <v>314.25</v>
+        <v>226.1</v>
       </c>
       <c r="C131">
-        <v>3.3</v>
+        <v>5.804</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -21666,10 +21654,10 @@
         <v>44760</v>
       </c>
       <c r="B132">
-        <v>323.75</v>
+        <v>233.4</v>
       </c>
       <c r="C132">
-        <v>2.978</v>
+        <v>3.178</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -21677,10 +21665,10 @@
         <v>44761</v>
       </c>
       <c r="B133">
-        <v>332.8</v>
+        <v>232.65</v>
       </c>
       <c r="C133">
-        <v>2.757</v>
+        <v>-0.322</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -21688,10 +21676,10 @@
         <v>44762</v>
       </c>
       <c r="B134">
-        <v>319.5</v>
+        <v>230</v>
       </c>
       <c r="C134">
-        <v>-4.078</v>
+        <v>-1.146</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -21699,10 +21687,10 @@
         <v>44763</v>
       </c>
       <c r="B135">
-        <v>337.05</v>
+        <v>236.9</v>
       </c>
       <c r="C135">
-        <v>5.347</v>
+        <v>2.956</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -21710,10 +21698,10 @@
         <v>44764</v>
       </c>
       <c r="B136">
-        <v>337.5</v>
+        <v>235.5</v>
       </c>
       <c r="C136">
-        <v>0.133</v>
+        <v>-0.593</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -21721,10 +21709,10 @@
         <v>44767</v>
       </c>
       <c r="B137">
-        <v>358.75</v>
+        <v>251.85</v>
       </c>
       <c r="C137">
-        <v>6.106</v>
+        <v>6.712</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -21732,10 +21720,10 @@
         <v>44768</v>
       </c>
       <c r="B138">
-        <v>364.25</v>
+        <v>257.75</v>
       </c>
       <c r="C138">
-        <v>1.521</v>
+        <v>2.316</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -21743,10 +21731,10 @@
         <v>44769</v>
       </c>
       <c r="B139">
-        <v>384.55</v>
+        <v>274.85</v>
       </c>
       <c r="C139">
-        <v>5.423</v>
+        <v>6.424</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -21754,10 +21742,10 @@
         <v>44770</v>
       </c>
       <c r="B140">
-        <v>391.8</v>
+        <v>271.4</v>
       </c>
       <c r="C140">
-        <v>1.868</v>
+        <v>-1.263</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -21765,10 +21753,10 @@
         <v>44771</v>
       </c>
       <c r="B141">
-        <v>384.9</v>
+        <v>259.95</v>
       </c>
       <c r="C141">
-        <v>-1.777</v>
+        <v>-4.31</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -21776,10 +21764,10 @@
         <v>44774</v>
       </c>
       <c r="B142">
-        <v>363.7</v>
+        <v>247.95</v>
       </c>
       <c r="C142">
-        <v>-5.665</v>
+        <v>-4.726</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -21787,10 +21775,10 @@
         <v>44775</v>
       </c>
       <c r="B143">
-        <v>378.55</v>
+        <v>255.05</v>
       </c>
       <c r="C143">
-        <v>4.002</v>
+        <v>2.823</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -21798,10 +21786,10 @@
         <v>44776</v>
       </c>
       <c r="B144">
-        <v>383.8</v>
+        <v>257.55</v>
       </c>
       <c r="C144">
-        <v>1.377</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -21809,10 +21797,10 @@
         <v>44777</v>
       </c>
       <c r="B145">
-        <v>377.9</v>
+        <v>253.2</v>
       </c>
       <c r="C145">
-        <v>-1.549</v>
+        <v>-1.703</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -21820,10 +21808,10 @@
         <v>44778</v>
       </c>
       <c r="B146">
-        <v>370.15</v>
+        <v>254</v>
       </c>
       <c r="C146">
-        <v>-2.072</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -21831,10 +21819,10 @@
         <v>44781</v>
       </c>
       <c r="B147">
-        <v>388.5</v>
+        <v>260.65</v>
       </c>
       <c r="C147">
-        <v>4.838</v>
+        <v>2.584</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -21842,10 +21830,10 @@
         <v>44782</v>
       </c>
       <c r="B148">
-        <v>371.65</v>
+        <v>254</v>
       </c>
       <c r="C148">
-        <v>-4.434</v>
+        <v>-2.584</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -21853,10 +21841,10 @@
         <v>44783</v>
       </c>
       <c r="B149">
-        <v>362.4</v>
+        <v>255</v>
       </c>
       <c r="C149">
-        <v>-2.52</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -21864,10 +21852,10 @@
         <v>44784</v>
       </c>
       <c r="B150">
-        <v>371.75</v>
+        <v>263.4</v>
       </c>
       <c r="C150">
-        <v>2.547</v>
+        <v>3.241</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -21875,10 +21863,10 @@
         <v>44785</v>
       </c>
       <c r="B151">
-        <v>384</v>
+        <v>272.1</v>
       </c>
       <c r="C151">
-        <v>3.242</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -21886,10 +21874,10 @@
         <v>44789</v>
       </c>
       <c r="B152">
-        <v>387.3</v>
+        <v>270.45</v>
       </c>
       <c r="C152">
-        <v>0.856</v>
+        <v>-0.608</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -21897,10 +21885,10 @@
         <v>44790</v>
       </c>
       <c r="B153">
-        <v>391.4</v>
+        <v>272.5</v>
       </c>
       <c r="C153">
-        <v>1.053</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -21908,10 +21896,10 @@
         <v>44791</v>
       </c>
       <c r="B154">
-        <v>410.05</v>
+        <v>282.3</v>
       </c>
       <c r="C154">
-        <v>4.655</v>
+        <v>3.533</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -21919,10 +21907,10 @@
         <v>44792</v>
       </c>
       <c r="B155">
-        <v>400.2</v>
+        <v>273.4</v>
       </c>
       <c r="C155">
-        <v>-2.431</v>
+        <v>-3.203</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -21930,10 +21918,10 @@
         <v>44795</v>
       </c>
       <c r="B156">
-        <v>409.4</v>
+        <v>280.4</v>
       </c>
       <c r="C156">
-        <v>2.273</v>
+        <v>2.528</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -21941,10 +21929,10 @@
         <v>44796</v>
       </c>
       <c r="B157">
-        <v>427</v>
+        <v>290.85</v>
       </c>
       <c r="C157">
-        <v>4.209</v>
+        <v>3.659</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -21952,10 +21940,10 @@
         <v>44797</v>
       </c>
       <c r="B158">
-        <v>431.85</v>
+        <v>306.4</v>
       </c>
       <c r="C158">
-        <v>1.129</v>
+        <v>5.208</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -21963,10 +21951,10 @@
         <v>44798</v>
       </c>
       <c r="B159">
-        <v>429.95</v>
+        <v>310.3</v>
       </c>
       <c r="C159">
-        <v>-0.441</v>
+        <v>1.265</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -21974,10 +21962,10 @@
         <v>44799</v>
       </c>
       <c r="B160">
-        <v>434.1</v>
+        <v>311.3</v>
       </c>
       <c r="C160">
-        <v>0.961</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -21985,10 +21973,10 @@
         <v>44802</v>
       </c>
       <c r="B161">
-        <v>432.9</v>
+        <v>316.4</v>
       </c>
       <c r="C161">
-        <v>-0.277</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -21996,10 +21984,10 @@
         <v>44803</v>
       </c>
       <c r="B162">
-        <v>433.75</v>
+        <v>316.5</v>
       </c>
       <c r="C162">
-        <v>0.196</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -22007,10 +21995,10 @@
         <v>44804</v>
       </c>
       <c r="B163">
-        <v>415.4</v>
+        <v>296.75</v>
       </c>
       <c r="C163">
-        <v>-4.323</v>
+        <v>-6.443</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -22018,10 +22006,10 @@
         <v>44805</v>
       </c>
       <c r="B164">
-        <v>416.4</v>
+        <v>290.3</v>
       </c>
       <c r="C164">
-        <v>0.24</v>
+        <v>-2.198</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -22029,7 +22017,7 @@
         <v>44806</v>
       </c>
       <c r="B165">
-        <v>416.4</v>
+        <v>290.3</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -22040,10 +22028,10 @@
         <v>44809</v>
       </c>
       <c r="B166">
-        <v>417.75</v>
+        <v>304</v>
       </c>
       <c r="C166">
-        <v>0.324</v>
+        <v>4.611</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -22051,10 +22039,10 @@
         <v>44810</v>
       </c>
       <c r="B167">
-        <v>420.8</v>
+        <v>298</v>
       </c>
       <c r="C167">
-        <v>0.727</v>
+        <v>-1.993</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -22062,10 +22050,10 @@
         <v>44811</v>
       </c>
       <c r="B168">
-        <v>444.15</v>
+        <v>311.45</v>
       </c>
       <c r="C168">
-        <v>5.4</v>
+        <v>4.415</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -22073,10 +22061,10 @@
         <v>44812</v>
       </c>
       <c r="B169">
-        <v>444.4</v>
+        <v>312.15</v>
       </c>
       <c r="C169">
-        <v>0.056</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -22084,10 +22072,10 @@
         <v>44813</v>
       </c>
       <c r="B170">
-        <v>472.1</v>
+        <v>323.5</v>
       </c>
       <c r="C170">
-        <v>6.047</v>
+        <v>3.572</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -22095,10 +22083,10 @@
         <v>44816</v>
       </c>
       <c r="B171">
-        <v>468.05</v>
+        <v>315.95</v>
       </c>
       <c r="C171">
-        <v>-0.862</v>
+        <v>-2.362</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -22106,10 +22094,10 @@
         <v>44817</v>
       </c>
       <c r="B172">
-        <v>456.3</v>
+        <v>306.4</v>
       </c>
       <c r="C172">
-        <v>-2.542</v>
+        <v>-3.069</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -22117,10 +22105,10 @@
         <v>44818</v>
       </c>
       <c r="B173">
-        <v>476.6</v>
+        <v>315.3</v>
       </c>
       <c r="C173">
-        <v>4.353</v>
+        <v>2.863</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -22128,10 +22116,10 @@
         <v>44819</v>
       </c>
       <c r="B174">
-        <v>481.25</v>
+        <v>311.3</v>
       </c>
       <c r="C174">
-        <v>0.971</v>
+        <v>-1.277</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -22139,10 +22127,10 @@
         <v>44820</v>
       </c>
       <c r="B175">
-        <v>490.6</v>
+        <v>316.7</v>
       </c>
       <c r="C175">
-        <v>1.924</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -22150,10 +22138,10 @@
         <v>44823</v>
       </c>
       <c r="B176">
-        <v>519.1</v>
+        <v>339.45</v>
       </c>
       <c r="C176">
-        <v>5.647</v>
+        <v>6.937</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -22161,10 +22149,10 @@
         <v>44824</v>
       </c>
       <c r="B177">
-        <v>507.1</v>
+        <v>344.55</v>
       </c>
       <c r="C177">
-        <v>-2.339</v>
+        <v>1.491</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -22172,10 +22160,10 @@
         <v>44825</v>
       </c>
       <c r="B178">
-        <v>505.7</v>
+        <v>341</v>
       </c>
       <c r="C178">
-        <v>-0.276</v>
+        <v>-1.036</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -22183,10 +22171,10 @@
         <v>44826</v>
       </c>
       <c r="B179">
-        <v>511.15</v>
+        <v>345.7</v>
       </c>
       <c r="C179">
-        <v>1.072</v>
+        <v>1.369</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -22194,10 +22182,10 @@
         <v>44827</v>
       </c>
       <c r="B180">
-        <v>488.55</v>
+        <v>319.9</v>
       </c>
       <c r="C180">
-        <v>-4.522</v>
+        <v>-7.756</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -22205,10 +22193,10 @@
         <v>44830</v>
       </c>
       <c r="B181">
-        <v>463.9</v>
+        <v>307.5</v>
       </c>
       <c r="C181">
-        <v>-5.177</v>
+        <v>-3.953</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -22216,10 +22204,10 @@
         <v>44831</v>
       </c>
       <c r="B182">
-        <v>444.45</v>
+        <v>304.95</v>
       </c>
       <c r="C182">
-        <v>-4.283</v>
+        <v>-0.833</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -22227,10 +22215,10 @@
         <v>44832</v>
       </c>
       <c r="B183">
-        <v>442.4</v>
+        <v>313.55</v>
       </c>
       <c r="C183">
-        <v>-0.462</v>
+        <v>2.781</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -22238,10 +22226,10 @@
         <v>44833</v>
       </c>
       <c r="B184">
-        <v>442.4</v>
+        <v>311.6</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>-0.624</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -22249,10 +22237,10 @@
         <v>44834</v>
       </c>
       <c r="B185">
-        <v>437.3</v>
+        <v>315.85</v>
       </c>
       <c r="C185">
-        <v>-1.159</v>
+        <v>1.355</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -22260,10 +22248,10 @@
         <v>44837</v>
       </c>
       <c r="B186">
-        <v>474.9</v>
+        <v>325.8</v>
       </c>
       <c r="C186">
-        <v>8.247999999999999</v>
+        <v>3.102</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -22271,10 +22259,10 @@
         <v>44838</v>
       </c>
       <c r="B187">
-        <v>479.9</v>
+        <v>328</v>
       </c>
       <c r="C187">
-        <v>1.047</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -22282,10 +22270,10 @@
         <v>44839</v>
       </c>
       <c r="B188">
-        <v>480.55</v>
+        <v>331.7</v>
       </c>
       <c r="C188">
-        <v>0.135</v>
+        <v>1.122</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -22293,10 +22281,10 @@
         <v>44840</v>
       </c>
       <c r="B189">
-        <v>465.55</v>
+        <v>328.4</v>
       </c>
       <c r="C189">
-        <v>-3.171</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -22304,10 +22292,10 @@
         <v>44845</v>
       </c>
       <c r="B190">
-        <v>438.4</v>
+        <v>304.9</v>
       </c>
       <c r="C190">
-        <v>-6.009</v>
+        <v>-7.425</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -22315,10 +22303,10 @@
         <v>44846</v>
       </c>
       <c r="B191">
-        <v>435.15</v>
+        <v>299.1</v>
       </c>
       <c r="C191">
-        <v>-0.744</v>
+        <v>-1.921</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -22326,10 +22314,10 @@
         <v>44847</v>
       </c>
       <c r="B192">
-        <v>451</v>
+        <v>312.55</v>
       </c>
       <c r="C192">
-        <v>3.578</v>
+        <v>4.399</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -22337,10 +22325,10 @@
         <v>44848</v>
       </c>
       <c r="B193">
-        <v>441.2</v>
+        <v>305.85</v>
       </c>
       <c r="C193">
-        <v>-2.197</v>
+        <v>-2.167</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -22348,10 +22336,10 @@
         <v>44851</v>
       </c>
       <c r="B194">
-        <v>447.4</v>
+        <v>310.25</v>
       </c>
       <c r="C194">
-        <v>1.395</v>
+        <v>1.428</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -22359,10 +22347,10 @@
         <v>44852</v>
       </c>
       <c r="B195">
-        <v>446.85</v>
+        <v>303.4</v>
       </c>
       <c r="C195">
-        <v>-0.123</v>
+        <v>-2.233</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -22370,10 +22358,10 @@
         <v>44853</v>
       </c>
       <c r="B196">
-        <v>444.6</v>
+        <v>300.85</v>
       </c>
       <c r="C196">
-        <v>-0.505</v>
+        <v>-0.844</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -22381,10 +22369,10 @@
         <v>44854</v>
       </c>
       <c r="B197">
-        <v>441.55</v>
+        <v>300.15</v>
       </c>
       <c r="C197">
-        <v>-0.6879999999999999</v>
+        <v>-0.233</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -22392,10 +22380,10 @@
         <v>44855</v>
       </c>
       <c r="B198">
-        <v>448.85</v>
+        <v>310.9</v>
       </c>
       <c r="C198">
-        <v>1.64</v>
+        <v>3.519</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -22403,10 +22391,10 @@
         <v>44858</v>
       </c>
       <c r="B199">
-        <v>442.4</v>
+        <v>306.15</v>
       </c>
       <c r="C199">
-        <v>-1.447</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -22414,10 +22402,10 @@
         <v>44859</v>
       </c>
       <c r="B200">
-        <v>455.15</v>
+        <v>314.1</v>
       </c>
       <c r="C200">
-        <v>2.841</v>
+        <v>2.564</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -22425,10 +22413,10 @@
         <v>44860</v>
       </c>
       <c r="B201">
-        <v>450.45</v>
+        <v>307.2</v>
       </c>
       <c r="C201">
-        <v>-1.038</v>
+        <v>-2.221</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -22436,10 +22424,10 @@
         <v>44861</v>
       </c>
       <c r="B202">
-        <v>461.05</v>
+        <v>313.9</v>
       </c>
       <c r="C202">
-        <v>2.326</v>
+        <v>2.158</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -22447,10 +22435,10 @@
         <v>44862</v>
       </c>
       <c r="B203">
-        <v>452.8</v>
+        <v>306.15</v>
       </c>
       <c r="C203">
-        <v>-1.806</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -22458,10 +22446,10 @@
         <v>44865</v>
       </c>
       <c r="B204">
-        <v>459.55</v>
+        <v>311.55</v>
       </c>
       <c r="C204">
-        <v>1.48</v>
+        <v>1.748</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -22469,10 +22457,10 @@
         <v>44866</v>
       </c>
       <c r="B205">
-        <v>471.8</v>
+        <v>322.8</v>
       </c>
       <c r="C205">
-        <v>2.631</v>
+        <v>3.547</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -22480,10 +22468,10 @@
         <v>44867</v>
       </c>
       <c r="B206">
-        <v>456.05</v>
+        <v>314.15</v>
       </c>
       <c r="C206">
-        <v>-3.395</v>
+        <v>-2.716</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -22491,10 +22479,10 @@
         <v>44868</v>
       </c>
       <c r="B207">
-        <v>454.7</v>
+        <v>315.3</v>
       </c>
       <c r="C207">
-        <v>-0.296</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -22502,10 +22490,10 @@
         <v>44869</v>
       </c>
       <c r="B208">
-        <v>459.6</v>
+        <v>318.7</v>
       </c>
       <c r="C208">
-        <v>1.072</v>
+        <v>1.073</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -22513,10 +22501,10 @@
         <v>44872</v>
       </c>
       <c r="B209">
-        <v>438.5</v>
+        <v>309.3</v>
       </c>
       <c r="C209">
-        <v>-4.7</v>
+        <v>-2.994</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -22524,10 +22512,10 @@
         <v>44873</v>
       </c>
       <c r="B210">
-        <v>432.7</v>
+        <v>309.35</v>
       </c>
       <c r="C210">
-        <v>-1.332</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -22535,10 +22523,10 @@
         <v>44874</v>
       </c>
       <c r="B211">
-        <v>411.55</v>
+        <v>296.5</v>
       </c>
       <c r="C211">
-        <v>-5.011</v>
+        <v>-4.243</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -22546,10 +22534,10 @@
         <v>44875</v>
       </c>
       <c r="B212">
-        <v>409.9</v>
+        <v>290.2</v>
       </c>
       <c r="C212">
-        <v>-0.402</v>
+        <v>-2.148</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -22557,10 +22545,10 @@
         <v>44876</v>
       </c>
       <c r="B213">
-        <v>423.75</v>
+        <v>293.9</v>
       </c>
       <c r="C213">
-        <v>3.323</v>
+        <v>1.267</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -22568,10 +22556,10 @@
         <v>44879</v>
       </c>
       <c r="B214">
-        <v>422.6</v>
+        <v>292.5</v>
       </c>
       <c r="C214">
-        <v>-0.272</v>
+        <v>-0.477</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -22579,10 +22567,10 @@
         <v>44880</v>
       </c>
       <c r="B215">
-        <v>424.75</v>
+        <v>291.4</v>
       </c>
       <c r="C215">
-        <v>0.507</v>
+        <v>-0.377</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -22590,10 +22578,10 @@
         <v>44881</v>
       </c>
       <c r="B216">
-        <v>421.35</v>
+        <v>290</v>
       </c>
       <c r="C216">
-        <v>-0.804</v>
+        <v>-0.482</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -22601,10 +22589,10 @@
         <v>44882</v>
       </c>
       <c r="B217">
-        <v>430.4</v>
+        <v>297.5</v>
       </c>
       <c r="C217">
-        <v>2.125</v>
+        <v>2.553</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -22612,10 +22600,10 @@
         <v>44883</v>
       </c>
       <c r="B218">
-        <v>427.5</v>
+        <v>299</v>
       </c>
       <c r="C218">
-        <v>-0.676</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -22623,10 +22611,10 @@
         <v>44887</v>
       </c>
       <c r="B219">
-        <v>432.15</v>
+        <v>303.95</v>
       </c>
       <c r="C219">
-        <v>1.082</v>
+        <v>1.642</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -22634,10 +22622,10 @@
         <v>44888</v>
       </c>
       <c r="B220">
-        <v>434.95</v>
+        <v>322.45</v>
       </c>
       <c r="C220">
-        <v>0.646</v>
+        <v>5.908</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -22645,10 +22633,10 @@
         <v>44889</v>
       </c>
       <c r="B221">
-        <v>445.75</v>
+        <v>327.5</v>
       </c>
       <c r="C221">
-        <v>2.453</v>
+        <v>1.554</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -22656,10 +22644,10 @@
         <v>44890</v>
       </c>
       <c r="B222">
-        <v>453.3</v>
+        <v>343.1</v>
       </c>
       <c r="C222">
-        <v>1.68</v>
+        <v>4.653</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -22667,10 +22655,10 @@
         <v>44893</v>
       </c>
       <c r="B223">
-        <v>444.75</v>
+        <v>353</v>
       </c>
       <c r="C223">
-        <v>-1.904</v>
+        <v>2.845</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -22678,10 +22666,10 @@
         <v>44894</v>
       </c>
       <c r="B224">
-        <v>449.7</v>
+        <v>346.65</v>
       </c>
       <c r="C224">
-        <v>1.107</v>
+        <v>-1.815</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -22689,10 +22677,10 @@
         <v>44895</v>
       </c>
       <c r="B225">
-        <v>466.3</v>
+        <v>350.3</v>
       </c>
       <c r="C225">
-        <v>3.625</v>
+        <v>1.047</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -22700,10 +22688,10 @@
         <v>44896</v>
       </c>
       <c r="B226">
-        <v>461.8</v>
+        <v>352</v>
       </c>
       <c r="C226">
-        <v>-0.97</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -22711,10 +22699,10 @@
         <v>44897</v>
       </c>
       <c r="B227">
-        <v>458.15</v>
+        <v>338.8</v>
       </c>
       <c r="C227">
-        <v>-0.794</v>
+        <v>-3.822</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -22722,10 +22710,10 @@
         <v>44900</v>
       </c>
       <c r="B228">
-        <v>439.25</v>
+        <v>326.25</v>
       </c>
       <c r="C228">
-        <v>-4.213</v>
+        <v>-3.775</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -22733,10 +22721,10 @@
         <v>44901</v>
       </c>
       <c r="B229">
-        <v>463.1</v>
+        <v>330</v>
       </c>
       <c r="C229">
-        <v>5.287</v>
+        <v>1.143</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -22744,10 +22732,10 @@
         <v>44902</v>
       </c>
       <c r="B230">
-        <v>467.35</v>
+        <v>344</v>
       </c>
       <c r="C230">
-        <v>0.914</v>
+        <v>4.155</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -22755,10 +22743,10 @@
         <v>44907</v>
       </c>
       <c r="B231">
-        <v>454.05</v>
+        <v>328.55</v>
       </c>
       <c r="C231">
-        <v>-2.887</v>
+        <v>-4.595</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -22766,10 +22754,10 @@
         <v>44908</v>
       </c>
       <c r="B232">
-        <v>445.45</v>
+        <v>322.2</v>
       </c>
       <c r="C232">
-        <v>-1.912</v>
+        <v>-1.952</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -22777,10 +22765,10 @@
         <v>44909</v>
       </c>
       <c r="B233">
-        <v>436.65</v>
+        <v>321</v>
       </c>
       <c r="C233">
-        <v>-1.995</v>
+        <v>-0.373</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -22788,10 +22776,10 @@
         <v>44910</v>
       </c>
       <c r="B234">
-        <v>438.15</v>
+        <v>325.7</v>
       </c>
       <c r="C234">
-        <v>0.343</v>
+        <v>1.454</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -22799,10 +22787,10 @@
         <v>44911</v>
       </c>
       <c r="B235">
-        <v>439.45</v>
+        <v>326</v>
       </c>
       <c r="C235">
-        <v>0.296</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -22810,10 +22798,10 @@
         <v>44914</v>
       </c>
       <c r="B236">
-        <v>450.6</v>
+        <v>338.5</v>
       </c>
       <c r="C236">
-        <v>2.506</v>
+        <v>3.763</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -22821,10 +22809,10 @@
         <v>44915</v>
       </c>
       <c r="B237">
-        <v>459.8</v>
+        <v>342.25</v>
       </c>
       <c r="C237">
-        <v>2.021</v>
+        <v>1.102</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -22832,10 +22820,10 @@
         <v>44916</v>
       </c>
       <c r="B238">
-        <v>501.65</v>
+        <v>383.5</v>
       </c>
       <c r="C238">
-        <v>8.711</v>
+        <v>11.38</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -22843,10 +22831,10 @@
         <v>44917</v>
       </c>
       <c r="B239">
-        <v>510.75</v>
+        <v>391.7</v>
       </c>
       <c r="C239">
-        <v>1.798</v>
+        <v>2.116</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -22854,10 +22842,10 @@
         <v>44918</v>
       </c>
       <c r="B240">
-        <v>527.75</v>
+        <v>399.2</v>
       </c>
       <c r="C240">
-        <v>3.274</v>
+        <v>1.897</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -22865,10 +22853,10 @@
         <v>44921</v>
       </c>
       <c r="B241">
-        <v>534.8</v>
+        <v>409.45</v>
       </c>
       <c r="C241">
-        <v>1.327</v>
+        <v>2.535</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -22876,10 +22864,10 @@
         <v>44922</v>
       </c>
       <c r="B242">
-        <v>541.05</v>
+        <v>417.9</v>
       </c>
       <c r="C242">
-        <v>1.162</v>
+        <v>2.043</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -22887,10 +22875,10 @@
         <v>44923</v>
       </c>
       <c r="B243">
-        <v>574.7</v>
+        <v>441.95</v>
       </c>
       <c r="C243">
-        <v>6.034</v>
+        <v>5.595</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -22898,10 +22886,10 @@
         <v>44924</v>
       </c>
       <c r="B244">
-        <v>559.95</v>
+        <v>440.85</v>
       </c>
       <c r="C244">
-        <v>-2.6</v>
+        <v>-0.249</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -22909,10 +22897,10 @@
         <v>44925</v>
       </c>
       <c r="B245">
-        <v>561.1</v>
+        <v>455.2</v>
       </c>
       <c r="C245">
-        <v>0.205</v>
+        <v>3.203</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -22920,10 +22908,10 @@
         <v>44928</v>
       </c>
       <c r="B246">
-        <v>569.95</v>
+        <v>467.55</v>
       </c>
       <c r="C246">
-        <v>1.565</v>
+        <v>2.677</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -22931,10 +22919,10 @@
         <v>44929</v>
       </c>
       <c r="B247">
-        <v>540.05</v>
+        <v>430.05</v>
       </c>
       <c r="C247">
-        <v>-5.389</v>
+        <v>-8.359999999999999</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -22942,10 +22930,10 @@
         <v>44930</v>
       </c>
       <c r="B248">
-        <v>561.65</v>
+        <v>440.2</v>
       </c>
       <c r="C248">
-        <v>3.922</v>
+        <v>2.333</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -22953,10 +22941,10 @@
         <v>44931</v>
       </c>
       <c r="B249">
-        <v>599.9</v>
+        <v>463.5</v>
       </c>
       <c r="C249">
-        <v>6.588</v>
+        <v>5.158</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -22964,10 +22952,10 @@
         <v>44932</v>
       </c>
       <c r="B250">
-        <v>614.75</v>
+        <v>473</v>
       </c>
       <c r="C250">
-        <v>2.445</v>
+        <v>2.029</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -22975,10 +22963,10 @@
         <v>44935</v>
       </c>
       <c r="B251">
-        <v>619.35</v>
+        <v>471.35</v>
       </c>
       <c r="C251">
-        <v>0.745</v>
+        <v>-0.349</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -22986,10 +22974,10 @@
         <v>44936</v>
       </c>
       <c r="B252">
-        <v>622.7</v>
+        <v>465.95</v>
       </c>
       <c r="C252">
-        <v>0.539</v>
+        <v>-1.152</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -22997,10 +22985,10 @@
         <v>44937</v>
       </c>
       <c r="B253">
-        <v>662.1</v>
+        <v>505.55</v>
       </c>
       <c r="C253">
-        <v>6.135</v>
+        <v>8.157</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -23008,10 +22996,10 @@
         <v>44938</v>
       </c>
       <c r="B254">
-        <v>713.35</v>
+        <v>528.45</v>
       </c>
       <c r="C254">
-        <v>7.456</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -23019,10 +23007,10 @@
         <v>44939</v>
       </c>
       <c r="B255">
-        <v>720.15</v>
+        <v>550.15</v>
       </c>
       <c r="C255">
-        <v>0.949</v>
+        <v>4.024</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -23030,10 +23018,10 @@
         <v>44942</v>
       </c>
       <c r="B256">
-        <v>744.45</v>
+        <v>572.4</v>
       </c>
       <c r="C256">
-        <v>3.319</v>
+        <v>3.965</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -23041,10 +23029,10 @@
         <v>44943</v>
       </c>
       <c r="B257">
-        <v>799.8</v>
+        <v>592</v>
       </c>
       <c r="C257">
-        <v>7.172</v>
+        <v>3.367</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -23052,10 +23040,10 @@
         <v>44944</v>
       </c>
       <c r="B258">
-        <v>739.25</v>
+        <v>529.3</v>
       </c>
       <c r="C258">
-        <v>-7.873</v>
+        <v>-11.195</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -23063,10 +23051,10 @@
         <v>44945</v>
       </c>
       <c r="B259">
-        <v>769.1</v>
+        <v>542.15</v>
       </c>
       <c r="C259">
-        <v>3.958</v>
+        <v>2.399</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -23074,10 +23062,10 @@
         <v>44946</v>
       </c>
       <c r="B260">
-        <v>818.6</v>
+        <v>572.7</v>
       </c>
       <c r="C260">
-        <v>6.237</v>
+        <v>5.482</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -23085,10 +23073,10 @@
         <v>44949</v>
       </c>
       <c r="B261">
-        <v>795.35</v>
+        <v>565.35</v>
       </c>
       <c r="C261">
-        <v>-2.881</v>
+        <v>-1.292</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -23096,10 +23084,10 @@
         <v>44950</v>
       </c>
       <c r="B262">
-        <v>791.15</v>
+        <v>561.55</v>
       </c>
       <c r="C262">
-        <v>-0.529</v>
+        <v>-0.674</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -23107,10 +23095,10 @@
         <v>44951</v>
       </c>
       <c r="B263">
-        <v>826.9</v>
+        <v>585.2</v>
       </c>
       <c r="C263">
-        <v>4.42</v>
+        <v>4.125</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -23118,10 +23106,10 @@
         <v>44952</v>
       </c>
       <c r="B264">
-        <v>834.85</v>
+        <v>587.6</v>
       </c>
       <c r="C264">
-        <v>0.957</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -23129,10 +23117,10 @@
         <v>44953</v>
       </c>
       <c r="B265">
-        <v>803.35</v>
+        <v>569</v>
       </c>
       <c r="C265">
-        <v>-3.846</v>
+        <v>-3.217</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -23140,10 +23128,10 @@
         <v>44956</v>
       </c>
       <c r="B266">
-        <v>770.25</v>
+        <v>547.75</v>
       </c>
       <c r="C266">
-        <v>-4.208</v>
+        <v>-3.806</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -23151,10 +23139,10 @@
         <v>44957</v>
       </c>
       <c r="B267">
-        <v>807.1</v>
+        <v>569.5</v>
       </c>
       <c r="C267">
-        <v>4.673</v>
+        <v>3.894</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -23162,10 +23150,10 @@
         <v>44958</v>
       </c>
       <c r="B268">
-        <v>789.65</v>
+        <v>549.5</v>
       </c>
       <c r="C268">
-        <v>-2.186</v>
+        <v>-3.575</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -23173,10 +23161,10 @@
         <v>44959</v>
       </c>
       <c r="B269">
-        <v>800.8</v>
+        <v>545.95</v>
       </c>
       <c r="C269">
-        <v>1.402</v>
+        <v>-0.648</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -23184,10 +23172,10 @@
         <v>44960</v>
       </c>
       <c r="B270">
-        <v>752.55</v>
+        <v>518.95</v>
       </c>
       <c r="C270">
-        <v>-6.214</v>
+        <v>-5.072</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -23195,10 +23183,10 @@
         <v>44963</v>
       </c>
       <c r="B271">
-        <v>761.45</v>
+        <v>531.45</v>
       </c>
       <c r="C271">
-        <v>1.176</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -23206,10 +23194,10 @@
         <v>44964</v>
       </c>
       <c r="B272">
-        <v>761.45</v>
+        <v>529.4</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>-0.386</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -23217,10 +23205,10 @@
         <v>44966</v>
       </c>
       <c r="B273">
-        <v>750.35</v>
+        <v>535.15</v>
       </c>
       <c r="C273">
-        <v>-1.881</v>
+        <v>-0.345</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -23228,10 +23216,10 @@
         <v>44967</v>
       </c>
       <c r="B274">
-        <v>758.8</v>
+        <v>539.55</v>
       </c>
       <c r="C274">
-        <v>1.12</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -23239,10 +23227,10 @@
         <v>44970</v>
       </c>
       <c r="B275">
-        <v>790.75</v>
+        <v>569.95</v>
       </c>
       <c r="C275">
-        <v>4.124</v>
+        <v>5.481</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -23250,10 +23238,10 @@
         <v>44971</v>
       </c>
       <c r="B276">
-        <v>805</v>
+        <v>585</v>
       </c>
       <c r="C276">
-        <v>1.786</v>
+        <v>2.606</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -23261,10 +23249,10 @@
         <v>44972</v>
       </c>
       <c r="B277">
-        <v>792.15</v>
+        <v>573.2</v>
       </c>
       <c r="C277">
-        <v>-1.609</v>
+        <v>-2.038</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -23272,10 +23260,10 @@
         <v>44973</v>
       </c>
       <c r="B278">
-        <v>794.9</v>
+        <v>593.9</v>
       </c>
       <c r="C278">
-        <v>0.347</v>
+        <v>3.548</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -23283,10 +23271,10 @@
         <v>44974</v>
       </c>
       <c r="B279">
-        <v>752.2</v>
+        <v>566.4</v>
       </c>
       <c r="C279">
-        <v>-5.521</v>
+        <v>-4.741</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -23294,10 +23282,10 @@
         <v>44979</v>
       </c>
       <c r="B280">
-        <v>749.25</v>
+        <v>565.35</v>
       </c>
       <c r="C280">
-        <v>-0.393</v>
+        <v>-0.186</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -23305,10 +23293,10 @@
         <v>44980</v>
       </c>
       <c r="B281">
-        <v>769.85</v>
+        <v>584.7</v>
       </c>
       <c r="C281">
-        <v>2.712</v>
+        <v>3.365</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -23316,10 +23304,10 @@
         <v>44981</v>
       </c>
       <c r="B282">
-        <v>766.05</v>
+        <v>611.85</v>
       </c>
       <c r="C282">
-        <v>-0.495</v>
+        <v>4.539</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -23327,10 +23315,10 @@
         <v>44984</v>
       </c>
       <c r="B283">
-        <v>777.65</v>
+        <v>624.6</v>
       </c>
       <c r="C283">
-        <v>1.503</v>
+        <v>2.062</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -23338,10 +23326,10 @@
         <v>44985</v>
       </c>
       <c r="B284">
-        <v>767.7</v>
+        <v>626.15</v>
       </c>
       <c r="C284">
-        <v>-1.288</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -23349,10 +23337,10 @@
         <v>44986</v>
       </c>
       <c r="B285">
-        <v>760</v>
+        <v>633.05</v>
       </c>
       <c r="C285">
-        <v>-1.008</v>
+        <v>1.096</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -23360,10 +23348,10 @@
         <v>44987</v>
       </c>
       <c r="B286">
-        <v>725.3</v>
+        <v>605</v>
       </c>
       <c r="C286">
-        <v>-4.673</v>
+        <v>-4.532</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -23371,10 +23359,10 @@
         <v>44988</v>
       </c>
       <c r="B287">
-        <v>736</v>
+        <v>612.6</v>
       </c>
       <c r="C287">
-        <v>1.464</v>
+        <v>1.248</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -23382,10 +23370,10 @@
         <v>44991</v>
       </c>
       <c r="B288">
-        <v>760.25</v>
+        <v>630.3</v>
       </c>
       <c r="C288">
-        <v>3.242</v>
+        <v>2.848</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -23393,10 +23381,10 @@
         <v>44992</v>
       </c>
       <c r="B289">
-        <v>748</v>
+        <v>614</v>
       </c>
       <c r="C289">
-        <v>-1.624</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -23404,10 +23392,10 @@
         <v>44993</v>
       </c>
       <c r="B290">
-        <v>787.35</v>
+        <v>651.3</v>
       </c>
       <c r="C290">
-        <v>5.127</v>
+        <v>5.898</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -23415,10 +23403,10 @@
         <v>44994</v>
       </c>
       <c r="B291">
-        <v>776.45</v>
+        <v>633.05</v>
       </c>
       <c r="C291">
-        <v>-1.394</v>
+        <v>-2.842</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -23426,10 +23414,10 @@
         <v>44995</v>
       </c>
       <c r="B292">
-        <v>745.7</v>
+        <v>597.9</v>
       </c>
       <c r="C292">
-        <v>-4.041</v>
+        <v>-5.713</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -23437,10 +23425,10 @@
         <v>44998</v>
       </c>
       <c r="B293">
-        <v>734.45</v>
+        <v>573.65</v>
       </c>
       <c r="C293">
-        <v>-1.52</v>
+        <v>-4.14</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -23448,10 +23436,10 @@
         <v>44999</v>
       </c>
       <c r="B294">
-        <v>717.95</v>
+        <v>561.05</v>
       </c>
       <c r="C294">
-        <v>-2.272</v>
+        <v>-2.221</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -23459,10 +23447,10 @@
         <v>45000</v>
       </c>
       <c r="B295">
-        <v>669.55</v>
+        <v>513.8</v>
       </c>
       <c r="C295">
-        <v>-6.979</v>
+        <v>-8.798</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -23470,10 +23458,10 @@
         <v>45001</v>
       </c>
       <c r="B296">
-        <v>724.4</v>
+        <v>548.8</v>
       </c>
       <c r="C296">
-        <v>7.874</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -23481,10 +23469,10 @@
         <v>45002</v>
       </c>
       <c r="B297">
-        <v>693.3</v>
+        <v>521.05</v>
       </c>
       <c r="C297">
-        <v>-4.388</v>
+        <v>-5.189</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -23492,10 +23480,10 @@
         <v>45005</v>
       </c>
       <c r="B298">
-        <v>682.35</v>
+        <v>510.3</v>
       </c>
       <c r="C298">
-        <v>-1.592</v>
+        <v>-2.085</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -23503,10 +23491,10 @@
         <v>45006</v>
       </c>
       <c r="B299">
-        <v>717.05</v>
+        <v>539.95</v>
       </c>
       <c r="C299">
-        <v>4.96</v>
+        <v>5.648</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -23514,10 +23502,10 @@
         <v>45007</v>
       </c>
       <c r="B300">
-        <v>690.65</v>
+        <v>535.7</v>
       </c>
       <c r="C300">
-        <v>-3.751</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -23525,10 +23513,10 @@
         <v>45008</v>
       </c>
       <c r="B301">
-        <v>663.45</v>
+        <v>503.7</v>
       </c>
       <c r="C301">
-        <v>-4.018</v>
+        <v>-6.159</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -23536,10 +23524,10 @@
         <v>45012</v>
       </c>
       <c r="B302">
-        <v>709.7</v>
+        <v>539</v>
       </c>
       <c r="C302">
-        <v>6.739</v>
+        <v>6.773</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -23547,10 +23535,10 @@
         <v>45013</v>
       </c>
       <c r="B303">
-        <v>717.6</v>
+        <v>546.7</v>
       </c>
       <c r="C303">
-        <v>1.107</v>
+        <v>1.418</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -23558,10 +23546,10 @@
         <v>45014</v>
       </c>
       <c r="B304">
-        <v>738.35</v>
+        <v>561.1</v>
       </c>
       <c r="C304">
-        <v>2.851</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -23569,10 +23557,10 @@
         <v>45015</v>
       </c>
       <c r="B305">
-        <v>750.3</v>
+        <v>564.95</v>
       </c>
       <c r="C305">
-        <v>1.606</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -23580,10 +23568,10 @@
         <v>45016</v>
       </c>
       <c r="B306">
-        <v>720.75</v>
+        <v>537.7</v>
       </c>
       <c r="C306">
-        <v>-4.018</v>
+        <v>-4.944</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -23591,10 +23579,10 @@
         <v>45019</v>
       </c>
       <c r="B307">
-        <v>748.15</v>
+        <v>554</v>
       </c>
       <c r="C307">
-        <v>3.731</v>
+        <v>2.986</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -23602,10 +23590,10 @@
         <v>45020</v>
       </c>
       <c r="B308">
-        <v>737.2</v>
+        <v>550.55</v>
       </c>
       <c r="C308">
-        <v>-1.474</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -23613,10 +23601,10 @@
         <v>45021</v>
       </c>
       <c r="B309">
-        <v>734.4</v>
+        <v>549.2</v>
       </c>
       <c r="C309">
-        <v>-0.381</v>
+        <v>-0.246</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -23624,10 +23612,10 @@
         <v>45026</v>
       </c>
       <c r="B310">
-        <v>726.35</v>
+        <v>563.8</v>
       </c>
       <c r="C310">
-        <v>-1.102</v>
+        <v>2.624</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -23635,10 +23623,10 @@
         <v>45027</v>
       </c>
       <c r="B311">
-        <v>749</v>
+        <v>600.45</v>
       </c>
       <c r="C311">
-        <v>3.071</v>
+        <v>6.298</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -23646,10 +23634,10 @@
         <v>45028</v>
       </c>
       <c r="B312">
-        <v>779.3</v>
+        <v>619.95</v>
       </c>
       <c r="C312">
-        <v>3.966</v>
+        <v>3.196</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -23657,10 +23645,10 @@
         <v>45029</v>
       </c>
       <c r="B313">
-        <v>807.3</v>
+        <v>631.8</v>
       </c>
       <c r="C313">
-        <v>3.53</v>
+        <v>1.893</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -23668,10 +23656,10 @@
         <v>45030</v>
       </c>
       <c r="B314">
-        <v>835.15</v>
+        <v>664.45</v>
       </c>
       <c r="C314">
-        <v>3.392</v>
+        <v>5.039</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -23679,10 +23667,10 @@
         <v>45033</v>
       </c>
       <c r="B315">
-        <v>859.5</v>
+        <v>681.45</v>
       </c>
       <c r="C315">
-        <v>2.874</v>
+        <v>2.526</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -23690,10 +23678,10 @@
         <v>45034</v>
       </c>
       <c r="B316">
-        <v>853.2</v>
+        <v>688.85</v>
       </c>
       <c r="C316">
-        <v>-0.736</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -23701,10 +23689,10 @@
         <v>45035</v>
       </c>
       <c r="B317">
-        <v>793.55</v>
+        <v>647.1</v>
       </c>
       <c r="C317">
-        <v>-7.248</v>
+        <v>-6.252</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -23712,10 +23700,10 @@
         <v>45036</v>
       </c>
       <c r="B318">
-        <v>810.55</v>
+        <v>666.9</v>
       </c>
       <c r="C318">
-        <v>2.12</v>
+        <v>3.014</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -23723,10 +23711,10 @@
         <v>45037</v>
       </c>
       <c r="B319">
-        <v>821.35</v>
+        <v>672</v>
       </c>
       <c r="C319">
-        <v>1.324</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -23734,10 +23722,10 @@
         <v>45040</v>
       </c>
       <c r="B320">
-        <v>836.45</v>
+        <v>684.5</v>
       </c>
       <c r="C320">
-        <v>1.822</v>
+        <v>1.843</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -23745,10 +23733,10 @@
         <v>45041</v>
       </c>
       <c r="B321">
-        <v>841.55</v>
+        <v>683.7</v>
       </c>
       <c r="C321">
-        <v>0.608</v>
+        <v>-0.117</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -23756,10 +23744,10 @@
         <v>45042</v>
       </c>
       <c r="B322">
-        <v>843.7</v>
+        <v>684.5</v>
       </c>
       <c r="C322">
-        <v>0.255</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -23767,10 +23755,10 @@
         <v>45043</v>
       </c>
       <c r="B323">
-        <v>807.85</v>
+        <v>652.45</v>
       </c>
       <c r="C323">
-        <v>-4.342</v>
+        <v>-4.795</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -23778,10 +23766,10 @@
         <v>45048</v>
       </c>
       <c r="B324">
-        <v>793.9</v>
+        <v>635.05</v>
       </c>
       <c r="C324">
-        <v>-1.624</v>
+        <v>-2.365</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -23789,10 +23777,10 @@
         <v>45049</v>
       </c>
       <c r="B325">
-        <v>771.8</v>
+        <v>602.95</v>
       </c>
       <c r="C325">
-        <v>-2.823</v>
+        <v>-5.187</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -23800,10 +23788,10 @@
         <v>45050</v>
       </c>
       <c r="B326">
-        <v>760</v>
+        <v>590.1</v>
       </c>
       <c r="C326">
-        <v>-1.541</v>
+        <v>-2.154</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -23811,10 +23799,10 @@
         <v>45051</v>
       </c>
       <c r="B327">
-        <v>811.45</v>
+        <v>625.75</v>
       </c>
       <c r="C327">
-        <v>6.55</v>
+        <v>5.866</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -23822,10 +23810,10 @@
         <v>45054</v>
       </c>
       <c r="B328">
-        <v>824.2</v>
+        <v>646.85</v>
       </c>
       <c r="C328">
-        <v>1.559</v>
+        <v>3.316</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -23833,10 +23821,10 @@
         <v>45055</v>
       </c>
       <c r="B329">
-        <v>834.75</v>
+        <v>650.3</v>
       </c>
       <c r="C329">
-        <v>1.272</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -23844,10 +23832,10 @@
         <v>45056</v>
       </c>
       <c r="B330">
-        <v>828.85</v>
+        <v>661.6</v>
       </c>
       <c r="C330">
-        <v>-0.709</v>
+        <v>1.723</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -23855,10 +23843,10 @@
         <v>45057</v>
       </c>
       <c r="B331">
-        <v>845.9</v>
+        <v>685.4</v>
       </c>
       <c r="C331">
-        <v>2.036</v>
+        <v>3.534</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -23866,10 +23854,10 @@
         <v>45058</v>
       </c>
       <c r="B332">
-        <v>863.55</v>
+        <v>707.9</v>
       </c>
       <c r="C332">
-        <v>2.065</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -23877,10 +23865,10 @@
         <v>45061</v>
       </c>
       <c r="B333">
-        <v>860.3</v>
+        <v>726.05</v>
       </c>
       <c r="C333">
-        <v>-0.377</v>
+        <v>2.532</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -23888,10 +23876,10 @@
         <v>45062</v>
       </c>
       <c r="B334">
-        <v>828.35</v>
+        <v>691.05</v>
       </c>
       <c r="C334">
-        <v>-3.785</v>
+        <v>-4.941</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -23899,10 +23887,10 @@
         <v>45063</v>
       </c>
       <c r="B335">
-        <v>862.2</v>
+        <v>717.05</v>
       </c>
       <c r="C335">
-        <v>4.005</v>
+        <v>3.693</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -23910,10 +23898,10 @@
         <v>45064</v>
       </c>
       <c r="B336">
-        <v>860.25</v>
+        <v>711.05</v>
       </c>
       <c r="C336">
-        <v>-0.226</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -23921,10 +23909,10 @@
         <v>45065</v>
       </c>
       <c r="B337">
-        <v>874.55</v>
+        <v>712.65</v>
       </c>
       <c r="C337">
-        <v>1.649</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -23932,10 +23920,10 @@
         <v>45068</v>
       </c>
       <c r="B338">
-        <v>855.5</v>
+        <v>705.95</v>
       </c>
       <c r="C338">
-        <v>-2.202</v>
+        <v>-0.945</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -23943,10 +23931,10 @@
         <v>45069</v>
       </c>
       <c r="B339">
-        <v>870.4</v>
+        <v>721.2</v>
       </c>
       <c r="C339">
-        <v>1.727</v>
+        <v>2.137</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -23954,10 +23942,10 @@
         <v>45070</v>
       </c>
       <c r="B340">
-        <v>876.45</v>
+        <v>730.9</v>
       </c>
       <c r="C340">
-        <v>0.6929999999999999</v>
+        <v>1.336</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -23965,10 +23953,10 @@
         <v>45075</v>
       </c>
       <c r="B341">
-        <v>871.5</v>
+        <v>729.8</v>
       </c>
       <c r="C341">
-        <v>-0.5659999999999999</v>
+        <v>-0.151</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -23976,10 +23964,10 @@
         <v>45076</v>
       </c>
       <c r="B342">
-        <v>873.05</v>
+        <v>738.1</v>
       </c>
       <c r="C342">
-        <v>0.178</v>
+        <v>1.131</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -23987,10 +23975,10 @@
         <v>45077</v>
       </c>
       <c r="B343">
-        <v>859</v>
+        <v>724.05</v>
       </c>
       <c r="C343">
-        <v>-1.622</v>
+        <v>-1.922</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -23998,10 +23986,10 @@
         <v>45078</v>
       </c>
       <c r="B344">
-        <v>910.85</v>
+        <v>756.2</v>
       </c>
       <c r="C344">
-        <v>5.861</v>
+        <v>4.345</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -24009,10 +23997,10 @@
         <v>45079</v>
       </c>
       <c r="B345">
-        <v>913.7</v>
+        <v>753.15</v>
       </c>
       <c r="C345">
-        <v>0.312</v>
+        <v>-0.404</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -24020,10 +24008,10 @@
         <v>45082</v>
       </c>
       <c r="B346">
-        <v>925.45</v>
+        <v>778.25</v>
       </c>
       <c r="C346">
-        <v>1.278</v>
+        <v>3.278</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -24031,10 +24019,10 @@
         <v>45083</v>
       </c>
       <c r="B347">
-        <v>1040.35</v>
+        <v>872.1</v>
       </c>
       <c r="C347">
-        <v>11.703</v>
+        <v>11.386</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -24042,10 +24030,10 @@
         <v>45084</v>
       </c>
       <c r="B348">
-        <v>1085.25</v>
+        <v>904.3</v>
       </c>
       <c r="C348">
-        <v>4.225</v>
+        <v>3.626</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -24053,10 +24041,10 @@
         <v>45085</v>
       </c>
       <c r="B349">
-        <v>1071.85</v>
+        <v>883.75</v>
       </c>
       <c r="C349">
-        <v>-1.242</v>
+        <v>-2.299</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -24064,10 +24052,10 @@
         <v>45086</v>
       </c>
       <c r="B350">
-        <v>1074.4</v>
+        <v>901.1</v>
       </c>
       <c r="C350">
-        <v>0.238</v>
+        <v>1.944</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -24075,10 +24063,10 @@
         <v>45089</v>
       </c>
       <c r="B351">
-        <v>1103.85</v>
+        <v>902.25</v>
       </c>
       <c r="C351">
-        <v>2.704</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -24086,10 +24074,10 @@
         <v>45090</v>
       </c>
       <c r="B352">
-        <v>1132.05</v>
+        <v>913.1</v>
       </c>
       <c r="C352">
-        <v>2.523</v>
+        <v>1.195</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -24097,10 +24085,10 @@
         <v>45091</v>
       </c>
       <c r="B353">
-        <v>1116.75</v>
+        <v>922.2</v>
       </c>
       <c r="C353">
-        <v>-1.361</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -24108,10 +24096,10 @@
         <v>45092</v>
       </c>
       <c r="B354">
-        <v>1177.2</v>
+        <v>953</v>
       </c>
       <c r="C354">
-        <v>5.272</v>
+        <v>3.285</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -24119,10 +24107,10 @@
         <v>45093</v>
       </c>
       <c r="B355">
-        <v>1248.2</v>
+        <v>997.45</v>
       </c>
       <c r="C355">
-        <v>5.856</v>
+        <v>4.559</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -24130,10 +24118,10 @@
         <v>45098</v>
       </c>
       <c r="B356">
-        <v>1357.15</v>
+        <v>1055.7</v>
       </c>
       <c r="C356">
-        <v>8.368</v>
+        <v>5.676</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -24141,10 +24129,10 @@
         <v>45099</v>
       </c>
       <c r="B357">
-        <v>1289.3</v>
+        <v>1001.5</v>
       </c>
       <c r="C357">
-        <v>-5.129</v>
+        <v>-5.271</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -24152,10 +24140,10 @@
         <v>45100</v>
       </c>
       <c r="B358">
-        <v>1316.7</v>
+        <v>1010.6</v>
       </c>
       <c r="C358">
-        <v>2.103</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -24163,10 +24151,10 @@
         <v>45103</v>
       </c>
       <c r="B359">
-        <v>1411.5</v>
+        <v>1076.35</v>
       </c>
       <c r="C359">
-        <v>6.952</v>
+        <v>6.303</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -24174,10 +24162,10 @@
         <v>45104</v>
       </c>
       <c r="B360">
-        <v>1349.4</v>
+        <v>1026.95</v>
       </c>
       <c r="C360">
-        <v>-4.499</v>
+        <v>-4.698</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -24185,10 +24173,10 @@
         <v>45105</v>
       </c>
       <c r="B361">
-        <v>1335.65</v>
+        <v>999.7</v>
       </c>
       <c r="C361">
-        <v>-1.024</v>
+        <v>-2.689</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -24196,10 +24184,10 @@
         <v>45106</v>
       </c>
       <c r="B362">
-        <v>1333.75</v>
+        <v>979.1</v>
       </c>
       <c r="C362">
-        <v>-0.142</v>
+        <v>-2.082</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -24207,10 +24195,10 @@
         <v>45107</v>
       </c>
       <c r="B363">
-        <v>1432.15</v>
+        <v>1020.65</v>
       </c>
       <c r="C363">
-        <v>7.118</v>
+        <v>4.156</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -24218,10 +24206,10 @@
         <v>45110</v>
       </c>
       <c r="B364">
-        <v>1508.1</v>
+        <v>1064.8</v>
       </c>
       <c r="C364">
-        <v>5.167</v>
+        <v>4.235</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -24229,10 +24217,10 @@
         <v>45111</v>
       </c>
       <c r="B365">
-        <v>1505.05</v>
+        <v>1079.95</v>
       </c>
       <c r="C365">
-        <v>-0.202</v>
+        <v>1.413</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -24240,10 +24228,10 @@
         <v>45112</v>
       </c>
       <c r="B366">
-        <v>1450.15</v>
+        <v>1059.85</v>
       </c>
       <c r="C366">
-        <v>-3.716</v>
+        <v>-1.879</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -24251,10 +24239,10 @@
         <v>45113</v>
       </c>
       <c r="B367">
-        <v>1368.65</v>
+        <v>989.75</v>
       </c>
       <c r="C367">
-        <v>-5.784</v>
+        <v>-6.843</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -24262,10 +24250,10 @@
         <v>45114</v>
       </c>
       <c r="B368">
-        <v>1352.85</v>
+        <v>1019.8</v>
       </c>
       <c r="C368">
-        <v>-1.161</v>
+        <v>2.991</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -24273,10 +24261,10 @@
         <v>45117</v>
       </c>
       <c r="B369">
-        <v>1363</v>
+        <v>1014</v>
       </c>
       <c r="C369">
-        <v>0.747</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -24284,10 +24272,10 @@
         <v>45118</v>
       </c>
       <c r="B370">
-        <v>1380.7</v>
+        <v>1017.6</v>
       </c>
       <c r="C370">
-        <v>1.29</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -24295,10 +24283,10 @@
         <v>45119</v>
       </c>
       <c r="B371">
-        <v>1413.5</v>
+        <v>1020.9</v>
       </c>
       <c r="C371">
-        <v>2.348</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -24306,10 +24294,10 @@
         <v>45120</v>
       </c>
       <c r="B372">
-        <v>1525</v>
+        <v>1072</v>
       </c>
       <c r="C372">
-        <v>7.593</v>
+        <v>4.884</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -24317,10 +24305,10 @@
         <v>45121</v>
       </c>
       <c r="B373">
-        <v>1502.8</v>
+        <v>1038.1</v>
       </c>
       <c r="C373">
-        <v>-1.466</v>
+        <v>-3.213</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -24328,10 +24316,10 @@
         <v>45124</v>
       </c>
       <c r="B374">
-        <v>1531.55</v>
+        <v>1069.15</v>
       </c>
       <c r="C374">
-        <v>1.895</v>
+        <v>2.947</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -24339,10 +24327,10 @@
         <v>45125</v>
       </c>
       <c r="B375">
-        <v>1570</v>
+        <v>1068.1</v>
       </c>
       <c r="C375">
-        <v>2.48</v>
+        <v>-0.098</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -24350,10 +24338,10 @@
         <v>45126</v>
       </c>
       <c r="B376">
-        <v>1552</v>
+        <v>1072.45</v>
       </c>
       <c r="C376">
-        <v>-1.153</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -24361,10 +24349,10 @@
         <v>45127</v>
       </c>
       <c r="B377">
-        <v>1544.5</v>
+        <v>1077.25</v>
       </c>
       <c r="C377">
-        <v>-0.484</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -24372,10 +24360,10 @@
         <v>45128</v>
       </c>
       <c r="B378">
-        <v>1620.9</v>
+        <v>1098.65</v>
       </c>
       <c r="C378">
-        <v>4.828</v>
+        <v>1.967</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -24383,10 +24371,10 @@
         <v>45131</v>
       </c>
       <c r="B379">
-        <v>1569.95</v>
+        <v>1067.05</v>
       </c>
       <c r="C379">
-        <v>-3.194</v>
+        <v>-2.918</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -24394,10 +24382,10 @@
         <v>45132</v>
       </c>
       <c r="B380">
-        <v>1620.6</v>
+        <v>1084.75</v>
       </c>
       <c r="C380">
-        <v>3.175</v>
+        <v>1.645</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -24405,10 +24393,10 @@
         <v>45133</v>
       </c>
       <c r="B381">
-        <v>1657.45</v>
+        <v>1099.45</v>
       </c>
       <c r="C381">
-        <v>2.248</v>
+        <v>1.346</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -24416,10 +24404,10 @@
         <v>45134</v>
       </c>
       <c r="B382">
-        <v>1537.9</v>
+        <v>1012.3</v>
       </c>
       <c r="C382">
-        <v>-7.486</v>
+        <v>-8.259</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -24427,10 +24415,10 @@
         <v>45135</v>
       </c>
       <c r="B383">
-        <v>1589.4</v>
+        <v>1048.55</v>
       </c>
       <c r="C383">
-        <v>3.294</v>
+        <v>3.518</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -24438,10 +24426,10 @@
         <v>45138</v>
       </c>
       <c r="B384">
-        <v>1511.45</v>
+        <v>1038.3</v>
       </c>
       <c r="C384">
-        <v>-5.029</v>
+        <v>-0.982</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -24449,10 +24437,10 @@
         <v>45139</v>
       </c>
       <c r="B385">
-        <v>1444.65</v>
+        <v>1006.25</v>
       </c>
       <c r="C385">
-        <v>-4.52</v>
+        <v>-3.135</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -24460,10 +24448,10 @@
         <v>45140</v>
       </c>
       <c r="B386">
-        <v>1395.4</v>
+        <v>975.8</v>
       </c>
       <c r="C386">
-        <v>-3.469</v>
+        <v>-3.073</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -24471,10 +24459,10 @@
         <v>45141</v>
       </c>
       <c r="B387">
-        <v>1388.1</v>
+        <v>960.35</v>
       </c>
       <c r="C387">
-        <v>-0.525</v>
+        <v>-1.596</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -24482,10 +24470,10 @@
         <v>45142</v>
       </c>
       <c r="B388">
-        <v>1452.45</v>
+        <v>995.5</v>
       </c>
       <c r="C388">
-        <v>4.532</v>
+        <v>3.595</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -24493,10 +24481,10 @@
         <v>45145</v>
       </c>
       <c r="B389">
-        <v>1448.4</v>
+        <v>986.75</v>
       </c>
       <c r="C389">
-        <v>-0.279</v>
+        <v>-0.883</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -24504,10 +24492,10 @@
         <v>45147</v>
       </c>
       <c r="B390">
-        <v>1476.75</v>
+        <v>1007.85</v>
       </c>
       <c r="C390">
-        <v>-1.815</v>
+        <v>-1.076</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -24515,10 +24503,10 @@
         <v>45148</v>
       </c>
       <c r="B391">
-        <v>1552.25</v>
+        <v>1050.65</v>
       </c>
       <c r="C391">
-        <v>4.986</v>
+        <v>4.159</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -24526,10 +24514,10 @@
         <v>45149</v>
       </c>
       <c r="B392">
-        <v>1538.3</v>
+        <v>1062.95</v>
       </c>
       <c r="C392">
-        <v>-0.903</v>
+        <v>1.164</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -24537,10 +24525,10 @@
         <v>45152</v>
       </c>
       <c r="B393">
-        <v>1544.85</v>
+        <v>1025.15</v>
       </c>
       <c r="C393">
-        <v>0.425</v>
+        <v>-3.621</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -24548,10 +24536,10 @@
         <v>45153</v>
       </c>
       <c r="B394">
-        <v>1617.8</v>
+        <v>1074.55</v>
       </c>
       <c r="C394">
-        <v>4.614</v>
+        <v>4.706</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -24559,10 +24547,10 @@
         <v>45154</v>
       </c>
       <c r="B395">
-        <v>1650.8</v>
+        <v>1176.75</v>
       </c>
       <c r="C395">
-        <v>2.019</v>
+        <v>9.085000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/final/rs_analysis.xlsx
+++ b/data/final/rs_analysis.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E563"/>
+  <dimension ref="A1:E567"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9977,6 +9977,74 @@
         <v>170.595</v>
       </c>
     </row>
+    <row r="564" spans="1:5">
+      <c r="A564" s="2">
+        <v>45419</v>
+      </c>
+      <c r="B564">
+        <v>100</v>
+      </c>
+      <c r="C564">
+        <v>122.959</v>
+      </c>
+      <c r="D564">
+        <v>149.758</v>
+      </c>
+      <c r="E564">
+        <v>169.983</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5">
+      <c r="A565" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B565">
+        <v>100</v>
+      </c>
+      <c r="C565">
+        <v>121.358</v>
+      </c>
+      <c r="D565">
+        <v>147.665</v>
+      </c>
+      <c r="E565">
+        <v>170.227</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5">
+      <c r="A566" s="2">
+        <v>45421</v>
+      </c>
+      <c r="B566">
+        <v>100</v>
+      </c>
+      <c r="C566">
+        <v>119.644</v>
+      </c>
+      <c r="D566">
+        <v>146.82</v>
+      </c>
+      <c r="E566">
+        <v>170.026</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="A567" s="2">
+        <v>45422</v>
+      </c>
+      <c r="B567">
+        <v>100</v>
+      </c>
+      <c r="C567">
+        <v>122.629</v>
+      </c>
+      <c r="D567">
+        <v>146.352</v>
+      </c>
+      <c r="E567">
+        <v>165.764</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9984,7 +10052,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C563"/>
+  <dimension ref="A1:C567"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16183,6 +16251,50 @@
         <v>0.48</v>
       </c>
     </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="2">
+        <v>45419</v>
+      </c>
+      <c r="B564">
+        <v>1040</v>
+      </c>
+      <c r="C564">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B565">
+        <v>1040</v>
+      </c>
+      <c r="C565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="2">
+        <v>45421</v>
+      </c>
+      <c r="B566">
+        <v>1045</v>
+      </c>
+      <c r="C566">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="2">
+        <v>45422</v>
+      </c>
+      <c r="B567">
+        <v>1040</v>
+      </c>
+      <c r="C567">
+        <v>-0.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16190,7 +16302,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C563"/>
+  <dimension ref="A1:C567"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22389,6 +22501,50 @@
         <v>0.166</v>
       </c>
     </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="2">
+        <v>45419</v>
+      </c>
+      <c r="B564">
+        <v>870</v>
+      </c>
+      <c r="C564">
+        <v>-3.889</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B565">
+        <v>858.5</v>
+      </c>
+      <c r="C565">
+        <v>-1.331</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="2">
+        <v>45421</v>
+      </c>
+      <c r="B566">
+        <v>848</v>
+      </c>
+      <c r="C566">
+        <v>-1.231</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="2">
+        <v>45422</v>
+      </c>
+      <c r="B567">
+        <v>918.5</v>
+      </c>
+      <c r="C567">
+        <v>7.986</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22396,7 +22552,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C563"/>
+  <dimension ref="A1:C567"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28595,6 +28751,50 @@
         <v>5.641</v>
       </c>
     </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="2">
+        <v>45419</v>
+      </c>
+      <c r="B564">
+        <v>3902.5</v>
+      </c>
+      <c r="C564">
+        <v>-4.546</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B565">
+        <v>3846</v>
+      </c>
+      <c r="C565">
+        <v>-1.458</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="2">
+        <v>45421</v>
+      </c>
+      <c r="B566">
+        <v>3760</v>
+      </c>
+      <c r="C566">
+        <v>-2.261</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="2">
+        <v>45422</v>
+      </c>
+      <c r="B567">
+        <v>3738</v>
+      </c>
+      <c r="C567">
+        <v>-0.587</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28602,7 +28802,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C563"/>
+  <dimension ref="A1:C567"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -34801,6 +35001,50 @@
         <v>2.082</v>
       </c>
     </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="2">
+        <v>45419</v>
+      </c>
+      <c r="B564">
+        <v>26440</v>
+      </c>
+      <c r="C564">
+        <v>-0.787</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B565">
+        <v>26393.6</v>
+      </c>
+      <c r="C565">
+        <v>-0.176</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="2">
+        <v>45421</v>
+      </c>
+      <c r="B566">
+        <v>26469.95</v>
+      </c>
+      <c r="C566">
+        <v>0.289</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="2">
+        <v>45422</v>
+      </c>
+      <c r="B567">
+        <v>24615</v>
+      </c>
+      <c r="C567">
+        <v>-7.265</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
